--- a/Excel/Prop.xlsx
+++ b/Excel/Prop.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21702"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D048B5D-66B7-41D2-A1EB-1BC22C6B3F8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A931FE-A455-411A-8CC6-48EA5D681EFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="3630" windowWidth="21150" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23040" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>总共可使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：1经验加成卡  2金币加成卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -473,18 +485,18 @@
     <col min="1" max="1" width="39.375" style="1" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
     <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="17" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,16 +513,19 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -527,16 +542,19 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,16 +571,19 @@
         <v>8</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="1">
         <v>30001</v>
       </c>
@@ -579,16 +600,19 @@
         <v>12</v>
       </c>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
         <v>30002</v>
       </c>
@@ -605,17 +629,21 @@
         <v>13</v>
       </c>
       <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>20</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
